--- a/xlsxTest/x.xlsx
+++ b/xlsxTest/x.xlsx
@@ -68,11 +68,11 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>5</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>186348</xdr:rowOff>
+      <xdr:rowOff>174040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="itest_logo.png"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -86,7 +86,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2438405" cy="1329348"/>
+          <a:ext cx="2438405" cy="1317040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/xlsxTest/x.xlsx
+++ b/xlsxTest/x.xlsx
@@ -386,12 +386,15 @@
   <sheetPr>
     <tabColor rgb="FFFF4400"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/xlsxTest/x.xlsx
+++ b/xlsxTest/x.xlsx
@@ -57,7 +57,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -72,7 +72,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="itest_logo.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>

--- a/xlsxTest/x.xlsx
+++ b/xlsxTest/x.xlsx
@@ -72,7 +72,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="itest_logo.png"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -383,9 +383,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF4400"/>
-  </sheetPr>
   <dimension ref="D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/xlsxTest/x.xlsx
+++ b/xlsxTest/x.xlsx
@@ -13,11 +13,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
+  <si>
+    <t>AAAAAAAAAA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,8 +95,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -53,49 +111,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>174040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2438405" cy="1317040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,16 +398,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D8"/>
-  </mergeCells>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="F6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="G7" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>